--- a/quantifyVagusNerve/Plots/T4transport/complete_local_linhom1_1/complete_local_linhom1_1_all_result.xlsx
+++ b/quantifyVagusNerve/Plots/T4transport/complete_local_linhom1_1/complete_local_linhom1_1_all_result.xlsx
@@ -344,88 +344,88 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.488993780691717</v>
+        <v>0.0979785641815196</v>
       </c>
       <c r="C1" t="n">
-        <v>0.461802606271499</v>
+        <v>0.271726166100459</v>
       </c>
       <c r="D1" t="n">
-        <v>0.42582354785302</v>
+        <v>0.294330792383341</v>
       </c>
       <c r="E1" t="n">
-        <v>0.448758873058221</v>
+        <v>0.272814893357666</v>
       </c>
       <c r="F1" t="n">
-        <v>0.427032650905481</v>
+        <v>0.0885372169089109</v>
       </c>
       <c r="G1" t="n">
-        <v>0.408291133198202</v>
+        <v>0.135773897881848</v>
       </c>
       <c r="H1" t="n">
-        <v>0.485789803391967</v>
+        <v>0.0838272921532449</v>
       </c>
       <c r="I1" t="n">
-        <v>0.417042509795688</v>
+        <v>0.13913102506176</v>
       </c>
       <c r="J1" t="n">
-        <v>0.616962556061215</v>
+        <v>0.191085250672258</v>
       </c>
       <c r="K1" t="n">
-        <v>0.464454983970617</v>
+        <v>0.0547840160170904</v>
       </c>
       <c r="L1" t="n">
-        <v>0.467577001372218</v>
+        <v>0.15932695619225</v>
       </c>
       <c r="M1" t="n">
-        <v>0.456912587915084</v>
+        <v>0.0855144447445208</v>
       </c>
       <c r="N1" t="n">
-        <v>0.425353178882356</v>
+        <v>0.089331317098536</v>
       </c>
       <c r="O1" t="n">
-        <v>0.457725750531077</v>
+        <v>0.102982265420415</v>
       </c>
       <c r="P1" t="n">
-        <v>0.433496906226957</v>
+        <v>0.0577374116497073</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.460214435694225</v>
+        <v>0.122186774395599</v>
       </c>
       <c r="R1" t="n">
-        <v>0.420994780310733</v>
+        <v>0.0618391024886981</v>
       </c>
       <c r="S1" t="n">
-        <v>0.452650384801993</v>
+        <v>0.111123886725314</v>
       </c>
       <c r="T1" t="n">
-        <v>0.47158291992607</v>
+        <v>0.0497766227488361</v>
       </c>
       <c r="U1" t="n">
-        <v>0.434828268778654</v>
+        <v>0.0399060442671168</v>
       </c>
       <c r="V1" t="n">
-        <v>0.426718503250376</v>
+        <v>0.0470533951844071</v>
       </c>
       <c r="W1" t="n">
-        <v>0.417090939159103</v>
+        <v>0.062152877080723</v>
       </c>
       <c r="X1" t="n">
-        <v>0.413463888162044</v>
+        <v>0.0468140231817403</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.42261476054945</v>
+        <v>0.0760450739111829</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.436293228269825</v>
+        <v>0.075188030500845</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.469166936399783</v>
+        <v>0.0871096236576605</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.449235913956802</v>
+        <v>0.0502848904322572</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.497917466764819</v>
+        <v>0.119442357695277</v>
       </c>
     </row>
     <row r="2">
@@ -436,85 +436,85 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.494383089699767</v>
+        <v>0.284233617793558</v>
       </c>
       <c r="D2" t="n">
-        <v>0.451822220489964</v>
+        <v>0.305604761303959</v>
       </c>
       <c r="E2" t="n">
-        <v>0.466123216170392</v>
+        <v>0.285076840144736</v>
       </c>
       <c r="F2" t="n">
-        <v>0.452800093633522</v>
+        <v>0.126144746673113</v>
       </c>
       <c r="G2" t="n">
-        <v>0.442516087219659</v>
+        <v>0.16231552347938</v>
       </c>
       <c r="H2" t="n">
-        <v>0.506312029901751</v>
+        <v>0.123023721372293</v>
       </c>
       <c r="I2" t="n">
-        <v>0.443839298650582</v>
+        <v>0.165068961869284</v>
       </c>
       <c r="J2" t="n">
-        <v>0.60619720110701</v>
+        <v>0.209669210754376</v>
       </c>
       <c r="K2" t="n">
-        <v>0.521117155902718</v>
+        <v>0.105821392749792</v>
       </c>
       <c r="L2" t="n">
-        <v>0.483463824231864</v>
+        <v>0.18207005096577</v>
       </c>
       <c r="M2" t="n">
-        <v>0.486610234856265</v>
+        <v>0.124153866337722</v>
       </c>
       <c r="N2" t="n">
-        <v>0.458251556132098</v>
+        <v>0.126427169087287</v>
       </c>
       <c r="O2" t="n">
-        <v>0.477561033934817</v>
+        <v>0.136436684489385</v>
       </c>
       <c r="P2" t="n">
-        <v>0.463427514228337</v>
+        <v>0.107010738950385</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.477466520461091</v>
+        <v>0.151184724552744</v>
       </c>
       <c r="R2" t="n">
-        <v>0.455320214013826</v>
+        <v>0.109339144065981</v>
       </c>
       <c r="S2" t="n">
-        <v>0.475217867724128</v>
+        <v>0.142532385969435</v>
       </c>
       <c r="T2" t="n">
-        <v>0.47585486168316</v>
+        <v>0.102775382142712</v>
       </c>
       <c r="U2" t="n">
-        <v>0.451515088588968</v>
+        <v>0.0985153583618303</v>
       </c>
       <c r="V2" t="n">
-        <v>0.458331629112909</v>
+        <v>0.101722298781945</v>
       </c>
       <c r="W2" t="n">
-        <v>0.447695741346262</v>
+        <v>0.109377870093176</v>
       </c>
       <c r="X2" t="n">
-        <v>0.434239822314028</v>
+        <v>0.101504377810108</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.447262171736657</v>
+        <v>0.118117086770378</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.461220096738548</v>
+        <v>0.117187159948715</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.485770583931278</v>
+        <v>0.124963461871457</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.471947322473491</v>
+        <v>0.103190021920762</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.505496791113055</v>
+        <v>0.149025740425705</v>
       </c>
     </row>
     <row r="3">
@@ -528,82 +528,82 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.382920038131582</v>
+        <v>0.380642411734745</v>
       </c>
       <c r="E3" t="n">
-        <v>0.390977795301244</v>
+        <v>0.364981361775129</v>
       </c>
       <c r="F3" t="n">
-        <v>0.433013381657051</v>
+        <v>0.281483661541424</v>
       </c>
       <c r="G3" t="n">
-        <v>0.368924805891709</v>
+        <v>0.296539858281205</v>
       </c>
       <c r="H3" t="n">
-        <v>0.492113027604756</v>
+        <v>0.280105434633722</v>
       </c>
       <c r="I3" t="n">
-        <v>0.422276201834584</v>
+        <v>0.298190531961931</v>
       </c>
       <c r="J3" t="n">
-        <v>0.61171061714608</v>
+        <v>0.320525517924943</v>
       </c>
       <c r="K3" t="n">
-        <v>0.493964962414957</v>
+        <v>0.272714431201164</v>
       </c>
       <c r="L3" t="n">
-        <v>0.469857408587435</v>
+        <v>0.306848915480169</v>
       </c>
       <c r="M3" t="n">
-        <v>0.468006645707402</v>
+        <v>0.2803705615242</v>
       </c>
       <c r="N3" t="n">
-        <v>0.377548614846031</v>
+        <v>0.28193729561948</v>
       </c>
       <c r="O3" t="n">
-        <v>0.459348346948534</v>
+        <v>0.286060735346535</v>
       </c>
       <c r="P3" t="n">
-        <v>0.441230181953054</v>
+        <v>0.27467410186264</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.460309383880717</v>
+        <v>0.292310298641082</v>
       </c>
       <c r="R3" t="n">
-        <v>0.433625145172326</v>
+        <v>0.275262736714896</v>
       </c>
       <c r="S3" t="n">
-        <v>0.456933112666772</v>
+        <v>0.288182430838044</v>
       </c>
       <c r="T3" t="n">
-        <v>0.459997712088143</v>
+        <v>0.27385916433027</v>
       </c>
       <c r="U3" t="n">
-        <v>0.433673470458697</v>
+        <v>0.272527157450162</v>
       </c>
       <c r="V3" t="n">
-        <v>0.436246435942693</v>
+        <v>0.273026877022819</v>
       </c>
       <c r="W3" t="n">
-        <v>0.423954434155037</v>
+        <v>0.275618744675203</v>
       </c>
       <c r="X3" t="n">
-        <v>0.414107033065376</v>
+        <v>0.273230834203853</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.425591140922007</v>
+        <v>0.278472486673577</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.440801012818875</v>
+        <v>0.278459085042769</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.469395704271687</v>
+        <v>0.28101777745222</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.453566104823046</v>
+        <v>0.273530527841801</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.492710201894194</v>
+        <v>0.290180764237294</v>
       </c>
     </row>
     <row r="4">
@@ -620,79 +620,79 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.367401458182405</v>
+        <v>0.379935979536167</v>
       </c>
       <c r="F4" t="n">
-        <v>0.393839718511073</v>
+        <v>0.302643889169826</v>
       </c>
       <c r="G4" t="n">
-        <v>0.338201673833854</v>
+        <v>0.31753492821792</v>
       </c>
       <c r="H4" t="n">
-        <v>0.467702018326577</v>
+        <v>0.301160511723396</v>
       </c>
       <c r="I4" t="n">
-        <v>0.376435063299168</v>
+        <v>0.317394168251853</v>
       </c>
       <c r="J4" t="n">
-        <v>0.595271463193228</v>
+        <v>0.339364791791525</v>
       </c>
       <c r="K4" t="n">
-        <v>0.469207690475633</v>
+        <v>0.294333535266958</v>
       </c>
       <c r="L4" t="n">
-        <v>0.437176159434103</v>
+        <v>0.325823595902877</v>
       </c>
       <c r="M4" t="n">
-        <v>0.43686026143016</v>
+        <v>0.302098783017868</v>
       </c>
       <c r="N4" t="n">
-        <v>0.349636457256865</v>
+        <v>0.303259355071285</v>
       </c>
       <c r="O4" t="n">
-        <v>0.424282889108821</v>
+        <v>0.307158025481258</v>
       </c>
       <c r="P4" t="n">
-        <v>0.404589484905206</v>
+        <v>0.296388046735011</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.424339266086741</v>
+        <v>0.31221331824995</v>
       </c>
       <c r="R4" t="n">
-        <v>0.394087529248451</v>
+        <v>0.29680080619596</v>
       </c>
       <c r="S4" t="n">
-        <v>0.420006909137252</v>
+        <v>0.308494771907552</v>
       </c>
       <c r="T4" t="n">
-        <v>0.426982102602558</v>
+        <v>0.295856367993079</v>
       </c>
       <c r="U4" t="n">
-        <v>0.394091891656189</v>
+        <v>0.295185006601082</v>
       </c>
       <c r="V4" t="n">
-        <v>0.39847577931084</v>
+        <v>0.295419181527794</v>
       </c>
       <c r="W4" t="n">
-        <v>0.383598034047117</v>
+        <v>0.297302615618909</v>
       </c>
       <c r="X4" t="n">
-        <v>0.368616607413305</v>
+        <v>0.29561491045825</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.385892496614582</v>
+        <v>0.300399924698128</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.400312222077556</v>
+        <v>0.300299186021937</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.439348881658375</v>
+        <v>0.302651311851844</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.416463220046872</v>
+        <v>0.295362128539278</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.468236249747951</v>
+        <v>0.31128598427381</v>
       </c>
     </row>
     <row r="5">
@@ -712,76 +712,76 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.412123814394273</v>
+        <v>0.282635129716101</v>
       </c>
       <c r="G5" t="n">
-        <v>0.351527339062456</v>
+        <v>0.297450063112723</v>
       </c>
       <c r="H5" t="n">
-        <v>0.477253229450737</v>
+        <v>0.280987189454234</v>
       </c>
       <c r="I5" t="n">
-        <v>0.398264596818901</v>
+        <v>0.29882363217278</v>
       </c>
       <c r="J5" t="n">
-        <v>0.587525467995022</v>
+        <v>0.320126346535521</v>
       </c>
       <c r="K5" t="n">
-        <v>0.480546784179398</v>
+        <v>0.274057225244791</v>
       </c>
       <c r="L5" t="n">
-        <v>0.449560390043409</v>
+        <v>0.306031811723892</v>
       </c>
       <c r="M5" t="n">
-        <v>0.453206249542357</v>
+        <v>0.281758192036142</v>
       </c>
       <c r="N5" t="n">
-        <v>0.360851856357172</v>
+        <v>0.282842737658117</v>
       </c>
       <c r="O5" t="n">
-        <v>0.441085008357385</v>
+        <v>0.287073266394735</v>
       </c>
       <c r="P5" t="n">
-        <v>0.422779709327221</v>
+        <v>0.275784985383492</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.440553417573627</v>
+        <v>0.292850604536685</v>
       </c>
       <c r="R5" t="n">
-        <v>0.412291482633886</v>
+        <v>0.276411771670894</v>
       </c>
       <c r="S5" t="n">
-        <v>0.437969442791598</v>
+        <v>0.289169750359165</v>
       </c>
       <c r="T5" t="n">
-        <v>0.440457838699997</v>
+        <v>0.274891966977848</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4101063797377</v>
+        <v>0.273627519187792</v>
       </c>
       <c r="V5" t="n">
-        <v>0.416224918346119</v>
+        <v>0.273933216152202</v>
       </c>
       <c r="W5" t="n">
-        <v>0.403362488169143</v>
+        <v>0.276933898072311</v>
       </c>
       <c r="X5" t="n">
-        <v>0.388812767431941</v>
+        <v>0.274223122711025</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.403575794936312</v>
+        <v>0.279483167825094</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.42052432739327</v>
+        <v>0.279451091264242</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.451078391022349</v>
+        <v>0.284094348518831</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.434039243641713</v>
+        <v>0.27457196303658</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.47808914772202</v>
+        <v>0.291212510306282</v>
       </c>
     </row>
     <row r="6">
@@ -804,73 +804,73 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.372976357354998</v>
+        <v>0.156790475816217</v>
       </c>
       <c r="H6" t="n">
-        <v>0.465063442670591</v>
+        <v>0.115361280504945</v>
       </c>
       <c r="I6" t="n">
-        <v>0.379531706539783</v>
+        <v>0.15960215705852</v>
       </c>
       <c r="J6" t="n">
-        <v>0.587172321169926</v>
+        <v>0.205720319013645</v>
       </c>
       <c r="K6" t="n">
-        <v>0.474556007882809</v>
+        <v>0.0964305278967553</v>
       </c>
       <c r="L6" t="n">
-        <v>0.436589985581206</v>
+        <v>0.177125557956576</v>
       </c>
       <c r="M6" t="n">
-        <v>0.434006278225683</v>
+        <v>0.116656868490059</v>
       </c>
       <c r="N6" t="n">
-        <v>0.392184481848274</v>
+        <v>0.119476601745198</v>
       </c>
       <c r="O6" t="n">
-        <v>0.425219009758803</v>
+        <v>0.130034022958532</v>
       </c>
       <c r="P6" t="n">
-        <v>0.405024732964317</v>
+        <v>0.0984373270128815</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.426390262659</v>
+        <v>0.145430990072396</v>
       </c>
       <c r="R6" t="n">
-        <v>0.392373221597296</v>
+        <v>0.100762241518124</v>
       </c>
       <c r="S6" t="n">
-        <v>0.423663305127279</v>
+        <v>0.136355498755723</v>
       </c>
       <c r="T6" t="n">
-        <v>0.429831134614267</v>
+        <v>0.0945400486366766</v>
       </c>
       <c r="U6" t="n">
-        <v>0.393755563138906</v>
+        <v>0.0896860932840865</v>
       </c>
       <c r="V6" t="n">
-        <v>0.400402256785225</v>
+        <v>0.0928706712710998</v>
       </c>
       <c r="W6" t="n">
-        <v>0.384198302394175</v>
+        <v>0.101062148249266</v>
       </c>
       <c r="X6" t="n">
-        <v>0.37337248630792</v>
+        <v>0.0928399668154382</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.386425871131551</v>
+        <v>0.11035263668406</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.402689553897115</v>
+        <v>0.10965392325736</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.43981653495003</v>
+        <v>0.117956989193285</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.420845773994493</v>
+        <v>0.0944390011418163</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.466290172845736</v>
+        <v>0.143167960871697</v>
       </c>
     </row>
     <row r="7">
@@ -896,70 +896,70 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.447874373442497</v>
+        <v>0.153912261581718</v>
       </c>
       <c r="I7" t="n">
-        <v>0.352258720597691</v>
+        <v>0.188886914944468</v>
       </c>
       <c r="J7" t="n">
-        <v>0.604070570372448</v>
+        <v>0.227968546374809</v>
       </c>
       <c r="K7" t="n">
-        <v>0.460610167625585</v>
+        <v>0.140650463840835</v>
       </c>
       <c r="L7" t="n">
-        <v>0.416851953235958</v>
+        <v>0.203011877397362</v>
       </c>
       <c r="M7" t="n">
-        <v>0.416530936228633</v>
+        <v>0.155010191816175</v>
       </c>
       <c r="N7" t="n">
-        <v>0.328819524544806</v>
+        <v>0.157089753512941</v>
       </c>
       <c r="O7" t="n">
-        <v>0.403194852992352</v>
+        <v>0.165137371660751</v>
       </c>
       <c r="P7" t="n">
-        <v>0.38099848241269</v>
+        <v>0.142238130702344</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.405804091040885</v>
+        <v>0.177406768523412</v>
       </c>
       <c r="R7" t="n">
-        <v>0.369271699255963</v>
+        <v>0.143757466949705</v>
       </c>
       <c r="S7" t="n">
-        <v>0.401365119465985</v>
+        <v>0.170221948822128</v>
       </c>
       <c r="T7" t="n">
-        <v>0.407483355722917</v>
+        <v>0.139774749133718</v>
       </c>
       <c r="U7" t="n">
-        <v>0.369685875442769</v>
+        <v>0.136453917683965</v>
       </c>
       <c r="V7" t="n">
-        <v>0.377724208769728</v>
+        <v>0.138533114502945</v>
       </c>
       <c r="W7" t="n">
-        <v>0.357643144875878</v>
+        <v>0.144078147407107</v>
       </c>
       <c r="X7" t="n">
-        <v>0.342738175064</v>
+        <v>0.138613229589676</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.361198186000218</v>
+        <v>0.151308286589455</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.37792636289985</v>
+        <v>0.150033768338922</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.422610135546231</v>
+        <v>0.156133554382878</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.398733134243369</v>
+        <v>0.139587807930791</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.451088579970351</v>
+        <v>0.17530220627619</v>
       </c>
     </row>
     <row r="8">
@@ -988,67 +988,67 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.458382574366482</v>
+        <v>0.157027630761026</v>
       </c>
       <c r="J8" t="n">
-        <v>0.605247707819819</v>
+        <v>0.203995717029651</v>
       </c>
       <c r="K8" t="n">
-        <v>0.522080222000144</v>
+        <v>0.0914235608623058</v>
       </c>
       <c r="L8" t="n">
-        <v>0.490717620181017</v>
+        <v>0.174574029847271</v>
       </c>
       <c r="M8" t="n">
-        <v>0.492765978177272</v>
+        <v>0.11287685005581</v>
       </c>
       <c r="N8" t="n">
-        <v>0.456654297590536</v>
+        <v>0.116279247290912</v>
       </c>
       <c r="O8" t="n">
-        <v>0.490128180292435</v>
+        <v>0.126856239492517</v>
       </c>
       <c r="P8" t="n">
-        <v>0.472694273840863</v>
+        <v>0.0943448192768051</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.490586359405066</v>
+        <v>0.142699616209644</v>
       </c>
       <c r="R8" t="n">
-        <v>0.463775208234082</v>
+        <v>0.0966222684209709</v>
       </c>
       <c r="S8" t="n">
-        <v>0.489869510138711</v>
+        <v>0.1334331350526</v>
       </c>
       <c r="T8" t="n">
-        <v>0.491827386495689</v>
+        <v>0.0903907504927854</v>
       </c>
       <c r="U8" t="n">
-        <v>0.465713182765789</v>
+        <v>0.0852532491705146</v>
       </c>
       <c r="V8" t="n">
-        <v>0.47344809244114</v>
+        <v>0.0883524895921363</v>
       </c>
       <c r="W8" t="n">
-        <v>0.459035945043425</v>
+        <v>0.0972156224159465</v>
       </c>
       <c r="X8" t="n">
-        <v>0.44941775249603</v>
+        <v>0.0884794545308013</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.461588986961891</v>
+        <v>0.106506303855903</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.475383340836563</v>
+        <v>0.105857525723969</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.499861519270381</v>
+        <v>0.114556896465263</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.487472810846397</v>
+        <v>0.0901338679559027</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.514015155987891</v>
+        <v>0.141003683689857</v>
       </c>
     </row>
     <row r="9">
@@ -1080,64 +1080,64 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.595679215476256</v>
+        <v>0.230492178422893</v>
       </c>
       <c r="K9" t="n">
-        <v>0.464232096237885</v>
+        <v>0.143557781887551</v>
       </c>
       <c r="L9" t="n">
-        <v>0.434225755327918</v>
+        <v>0.205384772915248</v>
       </c>
       <c r="M9" t="n">
-        <v>0.42536323217937</v>
+        <v>0.157873075363256</v>
       </c>
       <c r="N9" t="n">
-        <v>0.37069460641649</v>
+        <v>0.160366022749338</v>
       </c>
       <c r="O9" t="n">
-        <v>0.412203728675588</v>
+        <v>0.167874682850277</v>
       </c>
       <c r="P9" t="n">
-        <v>0.391207121780997</v>
+        <v>0.145500603752157</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.412577438303294</v>
+        <v>0.179858606893811</v>
       </c>
       <c r="R9" t="n">
-        <v>0.379404835891773</v>
+        <v>0.146929229169402</v>
       </c>
       <c r="S9" t="n">
-        <v>0.408724989477401</v>
+        <v>0.172716579347199</v>
       </c>
       <c r="T9" t="n">
-        <v>0.417390551174932</v>
+        <v>0.143060117617106</v>
       </c>
       <c r="U9" t="n">
-        <v>0.381928960473297</v>
+        <v>0.139949207294122</v>
       </c>
       <c r="V9" t="n">
-        <v>0.386050536826461</v>
+        <v>0.141693034900602</v>
       </c>
       <c r="W9" t="n">
-        <v>0.36976467886106</v>
+        <v>0.148171974177886</v>
       </c>
       <c r="X9" t="n">
-        <v>0.355185547561613</v>
+        <v>0.141777510475578</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.373769365096683</v>
+        <v>0.154241565288395</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.386581721587987</v>
+        <v>0.152981068944586</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.431676579554148</v>
+        <v>0.159149844535644</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.405559930065353</v>
+        <v>0.142915567854812</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.462506680377663</v>
+        <v>0.177973580541596</v>
       </c>
     </row>
     <row r="10">
@@ -1172,61 +1172,61 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.621269472588057</v>
+        <v>0.195140013207282</v>
       </c>
       <c r="L10" t="n">
-        <v>0.601005341439171</v>
+        <v>0.241347679683118</v>
       </c>
       <c r="M10" t="n">
-        <v>0.604750269903977</v>
+        <v>0.204835257277237</v>
       </c>
       <c r="N10" t="n">
-        <v>0.583394727191286</v>
+        <v>0.205839808791112</v>
       </c>
       <c r="O10" t="n">
-        <v>0.607665381577386</v>
+        <v>0.212079336376069</v>
       </c>
       <c r="P10" t="n">
-        <v>0.598245811073684</v>
+        <v>0.195657797966963</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.606681493022643</v>
+        <v>0.221268381701617</v>
       </c>
       <c r="R10" t="n">
-        <v>0.592556100644464</v>
+        <v>0.196730520259006</v>
       </c>
       <c r="S10" t="n">
-        <v>0.608223965946505</v>
+        <v>0.215890629625469</v>
       </c>
       <c r="T10" t="n">
-        <v>0.593325753200149</v>
+        <v>0.19340681055131</v>
       </c>
       <c r="U10" t="n">
-        <v>0.586141269837862</v>
+        <v>0.19136952473499</v>
       </c>
       <c r="V10" t="n">
-        <v>0.597547167375102</v>
+        <v>0.193026766102505</v>
       </c>
       <c r="W10" t="n">
-        <v>0.591764512372412</v>
+        <v>0.19688467781422</v>
       </c>
       <c r="X10" t="n">
-        <v>0.585320440287003</v>
+        <v>0.192812318584297</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.585798547634326</v>
+        <v>0.201158322483038</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.603505994731536</v>
+        <v>0.201050813508863</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.596619211427242</v>
+        <v>0.205248701120167</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.604093589020983</v>
+        <v>0.193680506415563</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.605186114139007</v>
+        <v>0.219670512657991</v>
       </c>
     </row>
     <row r="11">
@@ -1264,58 +1264,58 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.512015678681003</v>
+        <v>0.163608557902362</v>
       </c>
       <c r="M11" t="n">
-        <v>0.491895111631679</v>
+        <v>0.0931606038297809</v>
       </c>
       <c r="N11" t="n">
-        <v>0.470906171578928</v>
+        <v>0.0983396660527436</v>
       </c>
       <c r="O11" t="n">
-        <v>0.503505089564568</v>
+        <v>0.110283029839922</v>
       </c>
       <c r="P11" t="n">
-        <v>0.479810420322426</v>
+        <v>0.0697885650033634</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.503728274268978</v>
+        <v>0.128267246502908</v>
       </c>
       <c r="R11" t="n">
-        <v>0.469051004950598</v>
+        <v>0.072474674976079</v>
       </c>
       <c r="S11" t="n">
-        <v>0.496515279005712</v>
+        <v>0.117480280602698</v>
       </c>
       <c r="T11" t="n">
-        <v>0.50575907886244</v>
+        <v>0.0652647267704162</v>
       </c>
       <c r="U11" t="n">
-        <v>0.48389495057243</v>
+        <v>0.0580049857788101</v>
       </c>
       <c r="V11" t="n">
-        <v>0.465470834271464</v>
+        <v>0.0613339444662784</v>
       </c>
       <c r="W11" t="n">
-        <v>0.464922162708752</v>
+        <v>0.0737948089845065</v>
       </c>
       <c r="X11" t="n">
-        <v>0.461974603261817</v>
+        <v>0.061936671165365</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.468739079549681</v>
+        <v>0.0858068621495476</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.484455403338906</v>
+        <v>0.0849430949956248</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.501896019860423</v>
+        <v>0.0954987830006563</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.488253107217118</v>
+        <v>0.0642666850584779</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.520155414764979</v>
+        <v>0.124958007818302</v>
       </c>
     </row>
     <row r="12">
@@ -1356,55 +1356,55 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.47291814622717</v>
+        <v>0.175744493946192</v>
       </c>
       <c r="N12" t="n">
-        <v>0.427323066175389</v>
+        <v>0.177556053603449</v>
       </c>
       <c r="O12" t="n">
-        <v>0.464421248957847</v>
+        <v>0.18466728576604</v>
       </c>
       <c r="P12" t="n">
-        <v>0.447443408969967</v>
+        <v>0.164936859545574</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.464499207827977</v>
+        <v>0.195300529988083</v>
       </c>
       <c r="R12" t="n">
-        <v>0.43767864819799</v>
+        <v>0.166196999671929</v>
       </c>
       <c r="S12" t="n">
-        <v>0.462663553864306</v>
+        <v>0.188926510198715</v>
       </c>
       <c r="T12" t="n">
-        <v>0.466001674428829</v>
+        <v>0.162815596335856</v>
       </c>
       <c r="U12" t="n">
-        <v>0.436711298517864</v>
+        <v>0.1599675065336</v>
       </c>
       <c r="V12" t="n">
-        <v>0.446577717735742</v>
+        <v>0.161798390430204</v>
       </c>
       <c r="W12" t="n">
-        <v>0.430882777217603</v>
+        <v>0.16654902513049</v>
       </c>
       <c r="X12" t="n">
-        <v>0.417916596157474</v>
+        <v>0.161551544393889</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.433707949530445</v>
+        <v>0.171894480319921</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.447073263942963</v>
+        <v>0.171547677544118</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.477133327456262</v>
+        <v>0.17706289157286</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.459591290143563</v>
+        <v>0.162621819914288</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.495630411552174</v>
+        <v>0.193869137275423</v>
       </c>
     </row>
     <row r="13">
@@ -1448,52 +1448,52 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.429197628296317</v>
+        <v>0.117554442929865</v>
       </c>
       <c r="O13" t="n">
-        <v>0.463304691884673</v>
+        <v>0.127962583829091</v>
       </c>
       <c r="P13" t="n">
-        <v>0.443560307621929</v>
+        <v>0.0958520707371956</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.46450137446845</v>
+        <v>0.143719924578351</v>
       </c>
       <c r="R13" t="n">
-        <v>0.433894436242493</v>
+        <v>0.0981769723945054</v>
       </c>
       <c r="S13" t="n">
-        <v>0.461498404372268</v>
+        <v>0.134471445335589</v>
       </c>
       <c r="T13" t="n">
-        <v>0.468520062890279</v>
+        <v>0.0917852421049423</v>
       </c>
       <c r="U13" t="n">
-        <v>0.438436418128613</v>
+        <v>0.086838822743063</v>
       </c>
       <c r="V13" t="n">
-        <v>0.438503122355483</v>
+        <v>0.0898922638732861</v>
       </c>
       <c r="W13" t="n">
-        <v>0.427647441498326</v>
+        <v>0.0986364962440864</v>
       </c>
       <c r="X13" t="n">
-        <v>0.420231565625043</v>
+        <v>0.0899603558379222</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.42962223761998</v>
+        <v>0.107790249236034</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.443903808197132</v>
+        <v>0.107160886818229</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.472916440872399</v>
+        <v>0.115699062200626</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.457444093066912</v>
+        <v>0.0917034356403901</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.495209690120488</v>
+        <v>0.141111784653318</v>
       </c>
     </row>
     <row r="14">
@@ -1540,49 +1540,49 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.417025820934514</v>
+        <v>0.130431124090887</v>
       </c>
       <c r="P14" t="n">
-        <v>0.396825805342166</v>
+        <v>0.0991863832254333</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.420291027043744</v>
+        <v>0.145936464003588</v>
       </c>
       <c r="R14" t="n">
-        <v>0.385489183515567</v>
+        <v>0.101719340530706</v>
       </c>
       <c r="S14" t="n">
-        <v>0.415490112218381</v>
+        <v>0.137039602464698</v>
       </c>
       <c r="T14" t="n">
-        <v>0.417724222053975</v>
+        <v>0.094581548778289</v>
       </c>
       <c r="U14" t="n">
-        <v>0.383033054278094</v>
+        <v>0.0897812347897512</v>
       </c>
       <c r="V14" t="n">
-        <v>0.392451180563728</v>
+        <v>0.0935495326271169</v>
       </c>
       <c r="W14" t="n">
-        <v>0.374889756108372</v>
+        <v>0.101698638279143</v>
       </c>
       <c r="X14" t="n">
-        <v>0.359984968152454</v>
+        <v>0.0932197471905804</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.376973160277682</v>
+        <v>0.110593639101831</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.394406299255547</v>
+        <v>0.110171297653815</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.431451349660201</v>
+        <v>0.118490543420224</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.412224605068048</v>
+        <v>0.0950866067246855</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.457290317838921</v>
+        <v>0.14361382692785</v>
       </c>
     </row>
     <row r="15">
@@ -1632,46 +1632,46 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.434763447517875</v>
+        <v>0.111604967702406</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.452523666807484</v>
+        <v>0.154410916587425</v>
       </c>
       <c r="R15" t="n">
-        <v>0.425885631842673</v>
+        <v>0.113758733214547</v>
       </c>
       <c r="S15" t="n">
-        <v>0.449845649097651</v>
+        <v>0.145989217685399</v>
       </c>
       <c r="T15" t="n">
-        <v>0.456418463702373</v>
+        <v>0.107741320095198</v>
       </c>
       <c r="U15" t="n">
-        <v>0.426459657465417</v>
+        <v>0.103626766162662</v>
       </c>
       <c r="V15" t="n">
-        <v>0.432146143079328</v>
+        <v>0.106582634222589</v>
       </c>
       <c r="W15" t="n">
-        <v>0.416784586209895</v>
+        <v>0.113895395937861</v>
       </c>
       <c r="X15" t="n">
-        <v>0.407607661624464</v>
+        <v>0.106461549295385</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.419804820973368</v>
+        <v>0.12188174250472</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.431422317139654</v>
+        <v>0.121384821206869</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.468066575518019</v>
+        <v>0.129052638952142</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.448379960006676</v>
+        <v>0.108011534311061</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.492088186139304</v>
+        <v>0.152300656844775</v>
       </c>
     </row>
     <row r="16">
@@ -1724,43 +1724,43 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.436434034939856</v>
+        <v>0.129505688009371</v>
       </c>
       <c r="R16" t="n">
-        <v>0.40444821683636</v>
+        <v>0.0754618067358724</v>
       </c>
       <c r="S16" t="n">
-        <v>0.433402588888041</v>
+        <v>0.11912652681211</v>
       </c>
       <c r="T16" t="n">
-        <v>0.440452684671172</v>
+        <v>0.0660028660674914</v>
       </c>
       <c r="U16" t="n">
-        <v>0.407852266350266</v>
+        <v>0.0589876234972673</v>
       </c>
       <c r="V16" t="n">
-        <v>0.41058679360788</v>
+        <v>0.0639746607979374</v>
       </c>
       <c r="W16" t="n">
-        <v>0.395108553257536</v>
+        <v>0.0757005479036379</v>
       </c>
       <c r="X16" t="n">
-        <v>0.386076449278114</v>
+        <v>0.0638123079158394</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.398420836196008</v>
+        <v>0.0874206612791197</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.41280796678986</v>
+        <v>0.0867339596588189</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.449766226411436</v>
+        <v>0.0972556655689888</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.42961887248936</v>
+        <v>0.0664377661222961</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.476797224369275</v>
+        <v>0.126854324080818</v>
       </c>
     </row>
     <row r="17">
@@ -1816,40 +1816,40 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.42728535292639</v>
+        <v>0.131319571590122</v>
       </c>
       <c r="S17" t="n">
-        <v>0.450122705030296</v>
+        <v>0.159800748991696</v>
       </c>
       <c r="T17" t="n">
-        <v>0.45619784158198</v>
+        <v>0.126127486695502</v>
       </c>
       <c r="U17" t="n">
-        <v>0.426879425911974</v>
+        <v>0.122733989309486</v>
       </c>
       <c r="V17" t="n">
-        <v>0.432672115986181</v>
+        <v>0.125191502017461</v>
       </c>
       <c r="W17" t="n">
-        <v>0.41841806794199</v>
+        <v>0.131491906244623</v>
       </c>
       <c r="X17" t="n">
-        <v>0.406218714886901</v>
+        <v>0.125086056646373</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.421028468678595</v>
+        <v>0.138441230034624</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.432332046937548</v>
+        <v>0.137897986016348</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.467705696231215</v>
+        <v>0.144563152826794</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.447904215318556</v>
+        <v>0.12642247597143</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.493211915076473</v>
+        <v>0.165550220798218</v>
       </c>
     </row>
     <row r="18">
@@ -1908,37 +1908,37 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.423958040335605</v>
+        <v>0.121070995863937</v>
       </c>
       <c r="T18" t="n">
-        <v>0.433851951986422</v>
+        <v>0.0699857865266986</v>
       </c>
       <c r="U18" t="n">
-        <v>0.396268647811555</v>
+        <v>0.0634078694470205</v>
       </c>
       <c r="V18" t="n">
-        <v>0.401009259699793</v>
+        <v>0.0677654852386086</v>
       </c>
       <c r="W18" t="n">
-        <v>0.384158549171591</v>
+        <v>0.0789215799245628</v>
       </c>
       <c r="X18" t="n">
-        <v>0.377032327873557</v>
+        <v>0.067752676966636</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.388772889064553</v>
+        <v>0.0902298371230859</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.403069216225098</v>
+        <v>0.08956007263198</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.442854073049211</v>
+        <v>0.0997922920599029</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.421424936580491</v>
+        <v>0.070099594490406</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.468475428259346</v>
+        <v>0.128658941720139</v>
       </c>
     </row>
     <row r="19">
@@ -2000,34 +2000,34 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.455003487933235</v>
+        <v>0.115684252908808</v>
       </c>
       <c r="U19" t="n">
-        <v>0.424776822642268</v>
+        <v>0.111858543743089</v>
       </c>
       <c r="V19" t="n">
-        <v>0.428252996488712</v>
+        <v>0.114416607747215</v>
       </c>
       <c r="W19" t="n">
-        <v>0.415048864306818</v>
+        <v>0.121300741841184</v>
       </c>
       <c r="X19" t="n">
-        <v>0.402420482440075</v>
+        <v>0.114359898884607</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.417400878948919</v>
+        <v>0.128823846219596</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.429045559907363</v>
+        <v>0.128299085710941</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.464834252778575</v>
+        <v>0.135583491747363</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.44423350345324</v>
+        <v>0.115813182408939</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.490769713778609</v>
+        <v>0.15770760805761</v>
       </c>
     </row>
     <row r="20">
@@ -2092,31 +2092,31 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.428396231065556</v>
+        <v>0.0503575458651123</v>
       </c>
       <c r="V20" t="n">
-        <v>0.435955573685623</v>
+        <v>0.0569656040478559</v>
       </c>
       <c r="W20" t="n">
-        <v>0.422958768192327</v>
+        <v>0.0696915228999401</v>
       </c>
       <c r="X20" t="n">
-        <v>0.406782956770912</v>
+        <v>0.0563916146711447</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.423447402404954</v>
+        <v>0.0822816788060995</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.437407058768276</v>
+        <v>0.081701839113328</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.468943013223217</v>
+        <v>0.0926614979810984</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.450661689367295</v>
+        <v>0.0594660902700836</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.488794190671254</v>
+        <v>0.12376985441539</v>
       </c>
     </row>
     <row r="21">
@@ -2184,28 +2184,28 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.404382172127256</v>
+        <v>0.048545422840201</v>
       </c>
       <c r="W21" t="n">
-        <v>0.387069988858925</v>
+        <v>0.0631448354966395</v>
       </c>
       <c r="X21" t="n">
-        <v>0.372317140077403</v>
+        <v>0.0478713092431306</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.388674127469277</v>
+        <v>0.0768597269429831</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.405106041624289</v>
+        <v>0.0760971403017252</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.440407840817492</v>
+        <v>0.0879626378914881</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.421518139670635</v>
+        <v>0.0515261193741219</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.46677429861468</v>
+        <v>0.120316206586007</v>
       </c>
     </row>
     <row r="22">
@@ -2276,25 +2276,25 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.391147807829476</v>
+        <v>0.0679407375265007</v>
       </c>
       <c r="X22" t="n">
-        <v>0.379110073376788</v>
+        <v>0.0543224090053864</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.393856512963372</v>
+        <v>0.0808235649471607</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.408833288435403</v>
+        <v>0.0800778276574922</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.445053385341842</v>
+        <v>0.0913906626773514</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.42362943710482</v>
+        <v>0.0573971170672188</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.470752546181201</v>
+        <v>0.122474507146997</v>
       </c>
     </row>
     <row r="23">
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.363445913990779</v>
+        <v>0.0676674002905218</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.377085862837421</v>
+        <v>0.0903086311423796</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.392449746793681</v>
+        <v>0.0896277896957772</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.433600562866377</v>
+        <v>0.0998225285820362</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.411120538894319</v>
+        <v>0.0702704486071684</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.462203017898929</v>
+        <v>0.128905004314971</v>
       </c>
     </row>
     <row r="24">
@@ -2460,19 +2460,19 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.364022043077146</v>
+        <v>0.0807039270100302</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.381419315109017</v>
+        <v>0.0799095863031437</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.421515944563323</v>
+        <v>0.0912079909540929</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.398595210275996</v>
+        <v>0.0571095743836508</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.450942226717201</v>
+        <v>0.12264828481132</v>
       </c>
     </row>
     <row r="25">
@@ -2552,16 +2552,16 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.396857164425321</v>
+        <v>0.0999271624227457</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.433288825442257</v>
+        <v>0.108862430749264</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.413882416656827</v>
+        <v>0.0829964535478692</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.462074393177722</v>
+        <v>0.135875240391736</v>
       </c>
     </row>
     <row r="26">
@@ -2644,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.450224175108486</v>
+        <v>0.108378304743472</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.426518282980578</v>
+        <v>0.0819745495699947</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.479086955058317</v>
+        <v>0.135511228086432</v>
       </c>
     </row>
     <row r="27">
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.460416551327665</v>
+        <v>0.0930466338010508</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.495562036175713</v>
+        <v>0.142205310056116</v>
       </c>
     </row>
     <row r="28">
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.485719695947299</v>
+        <v>0.123899490642483</v>
       </c>
     </row>
     <row r="29">
@@ -2939,16 +2939,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="C1" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="D1" t="n">
         <v>135</v>
       </c>
       <c r="E1" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="F1" t="n">
         <v>0</v>
@@ -2960,10 +2960,10 @@
         <v>315</v>
       </c>
       <c r="I1" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1" t="n">
         <v>315</v>
-      </c>
-      <c r="J1" t="n">
-        <v>0</v>
       </c>
       <c r="K1" t="n">
         <v>180</v>
@@ -2984,7 +2984,7 @@
         <v>270</v>
       </c>
       <c r="Q1" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="R1" t="n">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>90</v>
       </c>
       <c r="T1" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="U1" t="n">
         <v>90</v>
@@ -3005,7 +3005,7 @@
         <v>270</v>
       </c>
       <c r="X1" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="Y1" t="n">
         <v>270</v>
@@ -3014,13 +3014,13 @@
         <v>225</v>
       </c>
       <c r="AA1" t="n">
+        <v>225</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>270</v>
+      </c>
+      <c r="AC1" t="n">
         <v>180</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>225</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>135</v>
       </c>
     </row>
     <row r="2">
@@ -3031,76 +3031,76 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>315</v>
+      </c>
+      <c r="D2" t="n">
+        <v>270</v>
+      </c>
+      <c r="E2" t="n">
+        <v>315</v>
+      </c>
+      <c r="F2" t="n">
         <v>90</v>
       </c>
-      <c r="D2" t="n">
-        <v>270</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>90</v>
+      </c>
+      <c r="H2" t="n">
+        <v>45</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>315</v>
+      </c>
+      <c r="L2" t="n">
+        <v>270</v>
+      </c>
+      <c r="M2" t="n">
+        <v>180</v>
+      </c>
+      <c r="N2" t="n">
+        <v>315</v>
+      </c>
+      <c r="O2" t="n">
+        <v>90</v>
+      </c>
+      <c r="P2" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="n">
         <v>225</v>
       </c>
-      <c r="G2" t="n">
-        <v>180</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>225</v>
-      </c>
-      <c r="M2" t="n">
-        <v>225</v>
-      </c>
-      <c r="N2" t="n">
-        <v>45</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>315</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>180</v>
-      </c>
       <c r="R2" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="S2" t="n">
         <v>225</v>
       </c>
       <c r="T2" t="n">
+        <v>135</v>
+      </c>
+      <c r="U2" t="n">
         <v>180</v>
       </c>
-      <c r="U2" t="n">
-        <v>135</v>
-      </c>
       <c r="V2" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="W2" t="n">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="X2" t="n">
         <v>270</v>
       </c>
       <c r="Y2" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="Z2" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -3135,13 +3135,13 @@
         <v>270</v>
       </c>
       <c r="H3" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="I3" t="n">
+        <v>90</v>
+      </c>
+      <c r="J3" t="n">
         <v>45</v>
-      </c>
-      <c r="J3" t="n">
-        <v>180</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>135</v>
       </c>
       <c r="O3" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="P3" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Q3" t="n">
         <v>225</v>
       </c>
       <c r="R3" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="S3" t="n">
         <v>270</v>
@@ -3180,10 +3180,10 @@
         <v>135</v>
       </c>
       <c r="W3" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="X3" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="Y3" t="n">
         <v>135</v>
@@ -3195,7 +3195,7 @@
         <v>45</v>
       </c>
       <c r="AB3" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -3218,13 +3218,13 @@
         <v>45</v>
       </c>
       <c r="F4" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="G4" t="n">
         <v>180</v>
       </c>
       <c r="H4" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I4" t="n">
         <v>135</v>
@@ -3236,7 +3236,7 @@
         <v>45</v>
       </c>
       <c r="L4" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>270</v>
@@ -3245,31 +3245,31 @@
         <v>45</v>
       </c>
       <c r="O4" t="n">
+        <v>180</v>
+      </c>
+      <c r="P4" t="n">
         <v>135</v>
       </c>
-      <c r="P4" t="n">
-        <v>180</v>
-      </c>
       <c r="Q4" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="R4" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="S4" t="n">
         <v>315</v>
       </c>
       <c r="T4" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="U4" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="V4" t="n">
         <v>180</v>
       </c>
       <c r="W4" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>180</v>
       </c>
       <c r="Z4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AA4" t="n">
         <v>90</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="G5" t="n">
         <v>135</v>
@@ -3322,13 +3322,13 @@
         <v>45</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="L5" t="n">
         <v>270</v>
       </c>
       <c r="M5" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -3337,13 +3337,13 @@
         <v>45</v>
       </c>
       <c r="P5" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Q5" t="n">
         <v>225</v>
       </c>
       <c r="R5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="S5" t="n">
         <v>270</v>
@@ -3358,10 +3358,10 @@
         <v>135</v>
       </c>
       <c r="W5" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="X5" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Y5" t="n">
         <v>135</v>
@@ -3370,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="AB5" t="n">
         <v>45</v>
       </c>
       <c r="AC5" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="H6" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="I6" t="n">
         <v>270</v>
@@ -3411,16 +3411,16 @@
         <v>315</v>
       </c>
       <c r="K6" t="n">
+        <v>180</v>
+      </c>
+      <c r="L6" t="n">
         <v>135</v>
       </c>
-      <c r="L6" t="n">
-        <v>180</v>
-      </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="O6" t="n">
         <v>315</v>
@@ -3429,28 +3429,28 @@
         <v>270</v>
       </c>
       <c r="Q6" t="n">
+        <v>90</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>90</v>
+      </c>
+      <c r="T6" t="n">
+        <v>315</v>
+      </c>
+      <c r="U6" t="n">
+        <v>45</v>
+      </c>
+      <c r="V6" t="n">
+        <v>315</v>
+      </c>
+      <c r="W6" t="n">
+        <v>270</v>
+      </c>
+      <c r="X6" t="n">
         <v>135</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>135</v>
-      </c>
-      <c r="T6" t="n">
-        <v>270</v>
-      </c>
-      <c r="U6" t="n">
-        <v>90</v>
-      </c>
-      <c r="V6" t="n">
-        <v>270</v>
-      </c>
-      <c r="W6" t="n">
-        <v>270</v>
-      </c>
-      <c r="X6" t="n">
-        <v>45</v>
       </c>
       <c r="Y6" t="n">
         <v>225</v>
@@ -3459,10 +3459,10 @@
         <v>225</v>
       </c>
       <c r="AA6" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="AC6" t="n">
         <v>135</v>
@@ -3497,10 +3497,10 @@
         <v>270</v>
       </c>
       <c r="J7" t="n">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="K7" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L7" t="n">
         <v>135</v>
@@ -3518,13 +3518,13 @@
         <v>225</v>
       </c>
       <c r="Q7" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="R7" t="n">
         <v>315</v>
       </c>
       <c r="S7" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="T7" t="n">
         <v>270</v>
@@ -3533,16 +3533,16 @@
         <v>45</v>
       </c>
       <c r="V7" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="W7" t="n">
         <v>225</v>
       </c>
       <c r="X7" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="Z7" t="n">
         <v>180</v>
@@ -3551,10 +3551,10 @@
         <v>135</v>
       </c>
       <c r="AB7" t="n">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="AC7" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
@@ -3586,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="L8" t="n">
         <v>225</v>
@@ -3607,16 +3607,16 @@
         <v>315</v>
       </c>
       <c r="Q8" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="R8" t="n">
         <v>45</v>
       </c>
       <c r="S8" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U8" t="n">
         <v>135</v>
@@ -3628,7 +3628,7 @@
         <v>315</v>
       </c>
       <c r="X8" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="Y8" t="n">
         <v>315</v>
@@ -3637,13 +3637,13 @@
         <v>270</v>
       </c>
       <c r="AA8" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AB8" t="n">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="AC8" t="n">
-        <v>180</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9">
@@ -3681,16 +3681,16 @@
         <v>270</v>
       </c>
       <c r="L9" t="n">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="N9" t="n">
         <v>315</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>180</v>
       </c>
       <c r="T9" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="U9" t="n">
         <v>135</v>
@@ -3714,25 +3714,25 @@
         <v>45</v>
       </c>
       <c r="W9" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="X9" t="n">
         <v>225</v>
       </c>
       <c r="Y9" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Z9" t="n">
         <v>315</v>
       </c>
       <c r="AA9" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="L10" t="n">
         <v>225</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="Q10" t="n">
         <v>180</v>
@@ -3791,7 +3791,7 @@
         <v>45</v>
       </c>
       <c r="S10" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="T10" t="n">
         <v>135</v>
@@ -3800,10 +3800,10 @@
         <v>135</v>
       </c>
       <c r="V10" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="W10" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="X10" t="n">
         <v>225</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11">
@@ -3859,25 +3859,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>225</v>
       </c>
       <c r="N11" t="n">
+        <v>90</v>
+      </c>
+      <c r="O11" t="n">
         <v>135</v>
-      </c>
-      <c r="O11" t="n">
-        <v>180</v>
       </c>
       <c r="P11" t="n">
         <v>90</v>
       </c>
       <c r="Q11" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="R11" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="S11" t="n">
         <v>270</v>
@@ -3886,19 +3886,19 @@
         <v>180</v>
       </c>
       <c r="U11" t="n">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="V11" t="n">
         <v>135</v>
       </c>
       <c r="W11" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="X11" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="Y11" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Z11" t="n">
         <v>45</v>
@@ -3969,22 +3969,22 @@
         <v>180</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="T12" t="n">
+        <v>180</v>
+      </c>
+      <c r="U12" t="n">
+        <v>270</v>
+      </c>
+      <c r="V12" t="n">
         <v>135</v>
-      </c>
-      <c r="U12" t="n">
-        <v>270</v>
-      </c>
-      <c r="V12" t="n">
-        <v>90</v>
       </c>
       <c r="W12" t="n">
         <v>90</v>
       </c>
       <c r="X12" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>90</v>
@@ -3993,13 +3993,13 @@
         <v>45</v>
       </c>
       <c r="AA12" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AC12" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4043,19 +4043,19 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="O13" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="P13" t="n">
         <v>225</v>
       </c>
       <c r="Q13" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="S13" t="n">
         <v>45</v>
@@ -4064,7 +4064,7 @@
         <v>315</v>
       </c>
       <c r="U13" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="V13" t="n">
         <v>270</v>
@@ -4073,7 +4073,7 @@
         <v>225</v>
       </c>
       <c r="X13" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="Y13" t="n">
         <v>225</v>
@@ -4082,10 +4082,10 @@
         <v>180</v>
       </c>
       <c r="AA13" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AB13" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="AC13" t="n">
         <v>135</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="R14" t="n">
         <v>90</v>
       </c>
       <c r="S14" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="T14" t="n">
         <v>45</v>
@@ -4156,25 +4156,25 @@
         <v>180</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="Y14" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>315</v>
       </c>
       <c r="AA14" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AB14" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>225</v>
@@ -4230,28 +4230,28 @@
         <v>315</v>
       </c>
       <c r="Q15" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="R15" t="n">
         <v>45</v>
       </c>
       <c r="S15" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U15" t="n">
         <v>135</v>
       </c>
       <c r="V15" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>315</v>
       </c>
       <c r="X15" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="n">
         <v>315</v>
@@ -4260,13 +4260,13 @@
         <v>270</v>
       </c>
       <c r="AA15" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="AB15" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="AC15" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16">
@@ -4319,19 +4319,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="R16" t="n">
         <v>90</v>
       </c>
       <c r="S16" t="n">
+        <v>180</v>
+      </c>
+      <c r="T16" t="n">
+        <v>90</v>
+      </c>
+      <c r="U16" t="n">
         <v>135</v>
-      </c>
-      <c r="T16" t="n">
-        <v>45</v>
-      </c>
-      <c r="U16" t="n">
-        <v>180</v>
       </c>
       <c r="V16" t="n">
         <v>45</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -4352,10 +4352,10 @@
         <v>270</v>
       </c>
       <c r="AB16" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17">
@@ -4411,10 +4411,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="S17" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>315</v>
@@ -4423,28 +4423,28 @@
         <v>315</v>
       </c>
       <c r="V17" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="W17" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="X17" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="Z17" t="n">
         <v>135</v>
       </c>
       <c r="AA17" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="AB17" t="n">
         <v>180</v>
       </c>
       <c r="AC17" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -4503,37 +4503,37 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
+        <v>90</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>45</v>
+      </c>
+      <c r="V18" t="n">
+        <v>315</v>
+      </c>
+      <c r="W18" t="n">
+        <v>270</v>
+      </c>
+      <c r="X18" t="n">
         <v>135</v>
       </c>
-      <c r="T18" t="n">
-        <v>315</v>
-      </c>
-      <c r="U18" t="n">
-        <v>90</v>
-      </c>
-      <c r="V18" t="n">
-        <v>270</v>
-      </c>
-      <c r="W18" t="n">
-        <v>270</v>
-      </c>
-      <c r="X18" t="n">
-        <v>45</v>
-      </c>
       <c r="Y18" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="Z18" t="n">
         <v>225</v>
       </c>
       <c r="AA18" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AB18" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="AC18" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -4598,31 +4598,31 @@
         <v>270</v>
       </c>
       <c r="U19" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="V19" t="n">
         <v>225</v>
       </c>
       <c r="W19" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="X19" t="n">
         <v>45</v>
       </c>
       <c r="Y19" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="Z19" t="n">
+        <v>135</v>
+      </c>
+      <c r="AA19" t="n">
         <v>90</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>135</v>
       </c>
       <c r="AB19" t="n">
         <v>180</v>
       </c>
       <c r="AC19" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -4687,28 +4687,28 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V20" t="n">
         <v>315</v>
       </c>
       <c r="W20" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="X20" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="Y20" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Z20" t="n">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="AA20" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="AB20" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AC20" t="n">
         <v>180</v>
@@ -4779,28 +4779,28 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="W21" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="X21" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Y21" t="n">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="Z21" t="n">
         <v>135</v>
       </c>
       <c r="AA21" t="n">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="AB21" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="AC21" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -4874,7 +4874,7 @@
         <v>315</v>
       </c>
       <c r="X22" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="Y22" t="n">
         <v>315</v>
@@ -4886,7 +4886,7 @@
         <v>225</v>
       </c>
       <c r="AB22" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="AC22" t="n">
         <v>225</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -4975,10 +4975,10 @@
         <v>270</v>
       </c>
       <c r="AB23" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24">
@@ -5245,7 +5245,7 @@
         <v>45</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27">
